--- a/biology/Zoologie/Colotis_antevippe/Colotis_antevippe.xlsx
+++ b/biology/Zoologie/Colotis_antevippe/Colotis_antevippe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colotis antevippe (ou Red Tip en Anglais d'Afrique du Sud) est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Colotis.
 Trois sous-espèces sont recensées :
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon à l'envergure de 45 mm a des ailes de couleur blanche, un corps sombre, quelques marques noires sur le côté des ailes, les extrémités de celles-ci sont rouges ou orange[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon à l'envergure de 45 mm a des ailes de couleur blanche, un corps sombre, quelques marques noires sur le côté des ailes, les extrémités de celles-ci sont rouges ou orange.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colotis antevippe est présent dans la majorité de l'écozone afrotropicale, c'est-à-dire depuis le sud du désert du Sahara jusque l'extrémité méridionale africaine. On le trouve principalement dans des espaces boisés, notamment dans la forêt claire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colotis antevippe est présent dans la majorité de l'écozone afrotropicale, c'est-à-dire depuis le sud du désert du Sahara jusque l'extrémité méridionale africaine. On le trouve principalement dans des espaces boisés, notamment dans la forêt claire.
 </t>
         </is>
       </c>
